--- a/runs/run627/NotionalETEOutput627.xlsx
+++ b/runs/run627/NotionalETEOutput627.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX2_State_Update</t>
+    <t>Missile_ANGERMAX3_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX2_330.MISSILE_ANGERMAX2_330</t>
+    <t>MISSILE_ANGERMAX3_444.MISSILE_ANGERMAX3_444</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX2</t>
+    <t>MISSILE_ANGERMAX3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1510.211852831851</v>
+        <v>-1528.329563470924</v>
       </c>
       <c r="J2">
-        <v>1909.639168280236</v>
+        <v>1960.009166088219</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1442.72621550699</v>
+        <v>-1505.96643767012</v>
       </c>
       <c r="J3">
-        <v>1875.238795948909</v>
+        <v>1883.424365129865</v>
       </c>
       <c r="K3">
-        <v>290.2971074045039</v>
+        <v>308.9048428548814</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1484.237594123616</v>
+        <v>-1469.31589527421</v>
       </c>
       <c r="J4">
-        <v>1871.328154925234</v>
+        <v>1861.143965464825</v>
       </c>
       <c r="K4">
-        <v>589.4514192656513</v>
+        <v>612.2099493426184</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1355.592262888164</v>
+        <v>-1345.384452654498</v>
       </c>
       <c r="J5">
-        <v>1798.309251571181</v>
+        <v>1872.046957077984</v>
       </c>
       <c r="K5">
-        <v>861.1850238780165</v>
+        <v>835.6235132332913</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1384.282631309012</v>
+        <v>-1384.577426229372</v>
       </c>
       <c r="J6">
-        <v>1854.052151847193</v>
+        <v>1749.173733167778</v>
       </c>
       <c r="K6">
-        <v>1083.48209918044</v>
+        <v>1086.414243881228</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1388.694379313486</v>
+        <v>-1397.022151173386</v>
       </c>
       <c r="J7">
-        <v>1775.564818525464</v>
+        <v>1708.902050382468</v>
       </c>
       <c r="K7">
-        <v>1383.950177909559</v>
+        <v>1400.76261337647</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1267.604342510961</v>
+        <v>-1371.385347617607</v>
       </c>
       <c r="J8">
-        <v>1734.256789491299</v>
+        <v>1672.992779177274</v>
       </c>
       <c r="K8">
-        <v>1544.015793147482</v>
+        <v>1549.511835872127</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-97.67687776887509</v>
+        <v>-98.26831727034794</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1277.028377712938</v>
+        <v>-1335.577918978518</v>
       </c>
       <c r="J9">
-        <v>1725.914767032135</v>
+        <v>1727.969555893647</v>
       </c>
       <c r="K9">
-        <v>1749.663627302379</v>
+        <v>1879.275807313277</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>221.1303483467054</v>
+        <v>220.6790120111423</v>
       </c>
       <c r="G10">
-        <v>-86.48511709737924</v>
+        <v>-87.14731553791579</v>
       </c>
       <c r="H10">
-        <v>837.3266272518775</v>
+        <v>882.3708189635169</v>
       </c>
       <c r="I10">
-        <v>-1185.738123798126</v>
+        <v>-1199.747054607912</v>
       </c>
       <c r="J10">
-        <v>1615.195832623362</v>
+        <v>1684.733946095909</v>
       </c>
       <c r="K10">
-        <v>2048.282225031673</v>
+        <v>1907.547068764052</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>161.746568275689</v>
+        <v>165.1993373209034</v>
       </c>
       <c r="G11">
-        <v>-70.22805458523105</v>
+        <v>-69.31698892998976</v>
       </c>
       <c r="H11">
-        <v>1059.097755391352</v>
+        <v>1026.387103271853</v>
       </c>
       <c r="I11">
-        <v>-1249.533862334928</v>
+        <v>-1162.276790434216</v>
       </c>
       <c r="J11">
-        <v>1616.079192044186</v>
+        <v>1562.09045492633</v>
       </c>
       <c r="K11">
-        <v>2214.644137577102</v>
+        <v>2274.598617821293</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>138.1044696030177</v>
+        <v>133.5291543821734</v>
       </c>
       <c r="G12">
-        <v>-52.33684189455998</v>
+        <v>-51.98369974304806</v>
       </c>
       <c r="H12">
-        <v>1222.247980993752</v>
+        <v>1154.326877637617</v>
       </c>
       <c r="I12">
-        <v>-1177.346036258753</v>
+        <v>-1179.086066813325</v>
       </c>
       <c r="J12">
-        <v>1441.211311242752</v>
+        <v>1488.856192919493</v>
       </c>
       <c r="K12">
-        <v>2273.78220223765</v>
+        <v>2251.362148142882</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>125.9263658519176</v>
+        <v>118.351421758354</v>
       </c>
       <c r="G13">
-        <v>-33.21674653581886</v>
+        <v>-32.91566247213522</v>
       </c>
       <c r="H13">
-        <v>1289.896411663672</v>
+        <v>1286.334996440742</v>
       </c>
       <c r="I13">
-        <v>-1096.725042555619</v>
+        <v>-1143.076600397291</v>
       </c>
       <c r="J13">
-        <v>1425.917102791126</v>
+        <v>1443.431783048499</v>
       </c>
       <c r="K13">
-        <v>2520.296441267256</v>
+        <v>2547.682850648213</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>114.6466574580478</v>
+        <v>112.2058450215903</v>
       </c>
       <c r="G14">
-        <v>-18.27409771644006</v>
+        <v>-18.03047584338592</v>
       </c>
       <c r="H14">
-        <v>1313.541627957008</v>
+        <v>1359.614883084437</v>
       </c>
       <c r="I14">
-        <v>-1052.227550525226</v>
+        <v>-1121.377258089574</v>
       </c>
       <c r="J14">
-        <v>1363.242878801513</v>
+        <v>1400.797613059179</v>
       </c>
       <c r="K14">
-        <v>2769.661010055569</v>
+        <v>2691.492724004356</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>100.6435020494455</v>
+        <v>104.4954809950864</v>
       </c>
       <c r="G15">
-        <v>-0.9377454378612577</v>
+        <v>-0.9037351298820108</v>
       </c>
       <c r="H15">
-        <v>1445.491267606786</v>
+        <v>1404.661738781757</v>
       </c>
       <c r="I15">
-        <v>-1077.410496781964</v>
+        <v>-1040.892670689824</v>
       </c>
       <c r="J15">
-        <v>1341.073258702906</v>
+        <v>1340.789055633418</v>
       </c>
       <c r="K15">
-        <v>2814.965370193791</v>
+        <v>2820.222847933346</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>96.03624097077369</v>
+        <v>89.61059189566625</v>
       </c>
       <c r="G16">
-        <v>15.74239571893201</v>
+        <v>16.15133037406742</v>
       </c>
       <c r="H16">
-        <v>1495.906372808558</v>
+        <v>1445.112554815622</v>
       </c>
       <c r="I16">
-        <v>-1026.74083221861</v>
+        <v>-974.3122089405385</v>
       </c>
       <c r="J16">
-        <v>1309.808524951878</v>
+        <v>1364.915572416015</v>
       </c>
       <c r="K16">
-        <v>2803.413058332573</v>
+        <v>2982.820504394203</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>88.11484014242254</v>
+        <v>86.18935204216912</v>
       </c>
       <c r="G17">
-        <v>31.18986768948439</v>
+        <v>31.28138287901133</v>
       </c>
       <c r="H17">
-        <v>1523.152310363496</v>
+        <v>1534.953358034811</v>
       </c>
       <c r="I17">
-        <v>-985.3705126103714</v>
+        <v>-935.9979310909861</v>
       </c>
       <c r="J17">
-        <v>1216.34359673013</v>
+        <v>1249.647050428222</v>
       </c>
       <c r="K17">
-        <v>2943.062683466567</v>
+        <v>3041.381917302769</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>78.65262249406794</v>
+        <v>81.127620336269</v>
       </c>
       <c r="G18">
-        <v>50.75815523684035</v>
+        <v>47.2954338199607</v>
       </c>
       <c r="H18">
-        <v>1561.700007093206</v>
+        <v>1552.376482148148</v>
       </c>
       <c r="I18">
-        <v>-943.5845310185654</v>
+        <v>-964.4939109361424</v>
       </c>
       <c r="J18">
-        <v>1262.518236437435</v>
+        <v>1273.218215955423</v>
       </c>
       <c r="K18">
-        <v>2977.95834759353</v>
+        <v>2934.604924982681</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>77.05594964950824</v>
+        <v>79.58410670191627</v>
       </c>
       <c r="G19">
-        <v>63.94181319346531</v>
+        <v>67.11263550625573</v>
       </c>
       <c r="H19">
-        <v>1529.633575490277</v>
+        <v>1560.134543633233</v>
       </c>
       <c r="I19">
-        <v>-901.735778862292</v>
+        <v>-869.4488549200796</v>
       </c>
       <c r="J19">
-        <v>1215.028820293349</v>
+        <v>1140.995251048435</v>
       </c>
       <c r="K19">
-        <v>3023.478326733704</v>
+        <v>3156.903719828578</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>77.31533161140683</v>
+        <v>77.34281345500733</v>
       </c>
       <c r="G20">
-        <v>79.28961853869987</v>
+        <v>85.59437933761738</v>
       </c>
       <c r="H20">
-        <v>1527.326437687068</v>
+        <v>1523.705098322376</v>
       </c>
       <c r="I20">
-        <v>-828.5354091705127</v>
+        <v>-825.4794920380714</v>
       </c>
       <c r="J20">
-        <v>1150.448493599735</v>
+        <v>1106.513436869491</v>
       </c>
       <c r="K20">
-        <v>3149.375491855712</v>
+        <v>3207.72780372305</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.97529302624231</v>
+        <v>71.46914709375811</v>
       </c>
       <c r="G21">
-        <v>97.56191473537204</v>
+        <v>101.4873820373885</v>
       </c>
       <c r="H21">
-        <v>1639.411851688752</v>
+        <v>1652.157551672811</v>
       </c>
       <c r="I21">
-        <v>-824.99049052224</v>
+        <v>-759.6799587722211</v>
       </c>
       <c r="J21">
-        <v>1021.871292073733</v>
+        <v>1085.014285697417</v>
       </c>
       <c r="K21">
-        <v>3322.397730238413</v>
+        <v>3058.497581744617</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>69.07896134523224</v>
+        <v>69.35750915310788</v>
       </c>
       <c r="G22">
-        <v>117.4113739783092</v>
+        <v>111.8545893578887</v>
       </c>
       <c r="H22">
-        <v>1689.197404434068</v>
+        <v>1645.246218542918</v>
       </c>
       <c r="I22">
-        <v>-768.1697967302168</v>
+        <v>-756.5420961926861</v>
       </c>
       <c r="J22">
-        <v>1075.674177625451</v>
+        <v>1028.933715377168</v>
       </c>
       <c r="K22">
-        <v>3350.453477029627</v>
+        <v>3267.756949813663</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>67.82588292357853</v>
+        <v>65.864084581123</v>
       </c>
       <c r="G23">
-        <v>137.6749611671092</v>
+        <v>125.8136090806477</v>
       </c>
       <c r="H23">
-        <v>1707.509086334063</v>
+        <v>1608.007450248181</v>
       </c>
       <c r="I23">
-        <v>-700.3881024871487</v>
+        <v>-694.6889728211632</v>
       </c>
       <c r="J23">
-        <v>1005.639180627206</v>
+        <v>1021.170745198437</v>
       </c>
       <c r="K23">
-        <v>3356.637566738297</v>
+        <v>3210.392486776124</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.89435898495842</v>
+        <v>60.92924342418195</v>
       </c>
       <c r="G24">
-        <v>154.6899357105115</v>
+        <v>140.4927952046568</v>
       </c>
       <c r="H24">
-        <v>1694.443791539167</v>
+        <v>1675.498971729256</v>
       </c>
       <c r="I24">
-        <v>-633.9363889703785</v>
+        <v>-656.4448601102815</v>
       </c>
       <c r="J24">
-        <v>974.4954704254818</v>
+        <v>963.7979814352975</v>
       </c>
       <c r="K24">
-        <v>3335.957905732768</v>
+        <v>3106.545720251998</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>61.6002258040531</v>
+        <v>61.05317288461215</v>
       </c>
       <c r="G25">
-        <v>171.4984800036583</v>
+        <v>156.3675534016836</v>
       </c>
       <c r="H25">
-        <v>1696.596421662761</v>
+        <v>1634.935456822591</v>
       </c>
       <c r="I25">
-        <v>-589.462451648125</v>
+        <v>-589.836703278994</v>
       </c>
       <c r="J25">
-        <v>842.1761132306684</v>
+        <v>870.9905365158429</v>
       </c>
       <c r="K25">
-        <v>3164.571881640256</v>
+        <v>3117.1749764294</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>62.49480333587743</v>
+        <v>60.14086925729666</v>
       </c>
       <c r="G26">
-        <v>178.8584188649631</v>
+        <v>180.8309714182128</v>
       </c>
       <c r="H26">
-        <v>1639.751939004773</v>
+        <v>1753.485504068732</v>
       </c>
       <c r="I26">
-        <v>-533.2728017894597</v>
+        <v>-569.2708952540921</v>
       </c>
       <c r="J26">
-        <v>868.4753574896442</v>
+        <v>852.0329050554678</v>
       </c>
       <c r="K26">
-        <v>3089.305167894084</v>
+        <v>3043.112409430215</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>60.77474906720582</v>
+        <v>55.82509424932877</v>
       </c>
       <c r="G27">
-        <v>200.0862981580979</v>
+        <v>203.3677309703196</v>
       </c>
       <c r="H27">
-        <v>1750.542866581688</v>
+        <v>1676.385847493386</v>
       </c>
       <c r="I27">
-        <v>-497.3514943593518</v>
+        <v>-516.1114547049247</v>
       </c>
       <c r="J27">
-        <v>788.2077435208248</v>
+        <v>771.3981017992164</v>
       </c>
       <c r="K27">
-        <v>3158.889791587387</v>
+        <v>2941.456350157817</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>56.86711442041271</v>
+        <v>55.83739980020309</v>
       </c>
       <c r="G28">
-        <v>215.4002702342364</v>
+        <v>209.077015711484</v>
       </c>
       <c r="H28">
-        <v>1665.03709510096</v>
+        <v>1728.512447995966</v>
       </c>
       <c r="I28">
-        <v>-449.3170322223102</v>
+        <v>-443.8211604523154</v>
       </c>
       <c r="J28">
-        <v>770.8818875978566</v>
+        <v>732.6042064992013</v>
       </c>
       <c r="K28">
-        <v>3117.088845795104</v>
+        <v>2964.822002667504</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>55.62906997678221</v>
+        <v>53.04571081552543</v>
       </c>
       <c r="G29">
-        <v>237.5826954733529</v>
+        <v>240.9174672580418</v>
       </c>
       <c r="H29">
-        <v>1787.567881308539</v>
+        <v>1826.253599515261</v>
       </c>
       <c r="I29">
-        <v>-385.2143433088852</v>
+        <v>-375.0418998748725</v>
       </c>
       <c r="J29">
-        <v>652.8868691799369</v>
+        <v>677.273321414312</v>
       </c>
       <c r="K29">
-        <v>2872.529317459962</v>
+        <v>2777.848209661471</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.61364900532098</v>
+        <v>51.78101374852526</v>
       </c>
       <c r="G30">
-        <v>245.3374791750927</v>
+        <v>245.0237296586149</v>
       </c>
       <c r="H30">
-        <v>1734.730686993835</v>
+        <v>1696.603276061373</v>
       </c>
       <c r="I30">
-        <v>-315.1390174161443</v>
+        <v>-339.3186867142818</v>
       </c>
       <c r="J30">
-        <v>638.7138190628083</v>
+        <v>663.3518601287461</v>
       </c>
       <c r="K30">
-        <v>2875.521044663781</v>
+        <v>2773.188933260479</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.33592716475481</v>
+        <v>53.21743543590261</v>
       </c>
       <c r="G31">
-        <v>254.0595278828262</v>
+        <v>273.9448859804531</v>
       </c>
       <c r="H31">
-        <v>1769.988368858969</v>
+        <v>1752.891379995559</v>
       </c>
       <c r="I31">
-        <v>-279.7240120478659</v>
+        <v>-264.5486174103424</v>
       </c>
       <c r="J31">
-        <v>563.7671146573193</v>
+        <v>607.838855288628</v>
       </c>
       <c r="K31">
-        <v>2539.984309783605</v>
+        <v>2687.855096893896</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.89811308679409</v>
+        <v>49.11822212149838</v>
       </c>
       <c r="G32">
-        <v>288.1296554608225</v>
+        <v>285.0741132315288</v>
       </c>
       <c r="H32">
-        <v>1727.122578690394</v>
+        <v>1729.468833740219</v>
       </c>
       <c r="I32">
-        <v>-203.1612758486152</v>
+        <v>-208.2439213120431</v>
       </c>
       <c r="J32">
-        <v>539.4767721222389</v>
+        <v>543.763909196609</v>
       </c>
       <c r="K32">
-        <v>2546.919306028654</v>
+        <v>2548.55851326807</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.37439295625997</v>
+        <v>52.10284985899385</v>
       </c>
       <c r="G33">
-        <v>309.9830616754271</v>
+        <v>310.3614440788052</v>
       </c>
       <c r="H33">
-        <v>1853.187887165327</v>
+        <v>1711.52743940441</v>
       </c>
       <c r="I33">
-        <v>-147.3700447912532</v>
+        <v>-143.9456877787736</v>
       </c>
       <c r="J33">
-        <v>475.4666184603871</v>
+        <v>495.2391279782272</v>
       </c>
       <c r="K33">
-        <v>2423.115616893209</v>
+        <v>2288.849953459729</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>50.94925404614311</v>
+        <v>47.10062182478312</v>
       </c>
       <c r="G34">
-        <v>321.0276709069693</v>
+        <v>321.1166206441401</v>
       </c>
       <c r="H34">
-        <v>1820.659273554405</v>
+        <v>1744.376239952199</v>
       </c>
       <c r="I34">
-        <v>-84.73770712385689</v>
+        <v>-84.73639821145456</v>
       </c>
       <c r="J34">
-        <v>464.2034687147383</v>
+        <v>464.1406746307641</v>
       </c>
       <c r="K34">
-        <v>2290.524912003099</v>
+        <v>2228.544698659947</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.32294566422232</v>
+        <v>49.42799202932918</v>
       </c>
       <c r="G35">
-        <v>340.1268715755619</v>
+        <v>331.2874922492438</v>
       </c>
       <c r="H35">
-        <v>1887.008728736298</v>
+        <v>1811.644800419787</v>
       </c>
       <c r="I35">
-        <v>-19.27384288857525</v>
+        <v>-19.04884709656836</v>
       </c>
       <c r="J35">
-        <v>388.5566198019225</v>
+        <v>379.7819259374884</v>
       </c>
       <c r="K35">
-        <v>2057.151984398622</v>
+        <v>1986.342812630116</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.6442020801644</v>
+        <v>47.90702651639132</v>
       </c>
       <c r="G36">
-        <v>346.9136562105271</v>
+        <v>340.8933764762782</v>
       </c>
       <c r="H36">
-        <v>1806.510407440052</v>
+        <v>1772.66391740602</v>
       </c>
       <c r="I36">
-        <v>48.55124524586439</v>
+        <v>45.62750688691577</v>
       </c>
       <c r="J36">
-        <v>359.0183233581528</v>
+        <v>331.4547908673661</v>
       </c>
       <c r="K36">
-        <v>1761.755101529916</v>
+        <v>1866.408325071064</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>47.92661566310373</v>
+        <v>45.36042413357791</v>
       </c>
       <c r="G37">
-        <v>357.6839132001954</v>
+        <v>366.2199301464071</v>
       </c>
       <c r="H37">
-        <v>1816.683073006378</v>
+        <v>1892.825933675222</v>
       </c>
       <c r="I37">
-        <v>111.9661207606648</v>
+        <v>120.7851799984203</v>
       </c>
       <c r="J37">
-        <v>290.8837033825378</v>
+        <v>305.9374521134222</v>
       </c>
       <c r="K37">
-        <v>1687.79037596678</v>
+        <v>1618.880728697702</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.78498350895762</v>
+        <v>44.37158919839477</v>
       </c>
       <c r="G38">
-        <v>395.2783147720556</v>
+        <v>371.2370372511732</v>
       </c>
       <c r="H38">
-        <v>1772.212623298946</v>
+        <v>1886.72557626852</v>
       </c>
       <c r="I38">
-        <v>187.6108654994246</v>
+        <v>187.6655675693455</v>
       </c>
       <c r="J38">
-        <v>253.19933889581</v>
+        <v>239.9894148629255</v>
       </c>
       <c r="K38">
-        <v>1355.453099888508</v>
+        <v>1339.951542357858</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>42.80852795824484</v>
+        <v>45.34209611125529</v>
       </c>
       <c r="G39">
-        <v>414.3099718595741</v>
+        <v>390.8340174494341</v>
       </c>
       <c r="H39">
-        <v>1775.002839653896</v>
+        <v>1902.091677233024</v>
       </c>
       <c r="I39">
-        <v>261.9984977280769</v>
+        <v>267.9825091527008</v>
       </c>
       <c r="J39">
-        <v>193.9966771149491</v>
+        <v>191.8275067193953</v>
       </c>
       <c r="K39">
-        <v>1182.936887776829</v>
+        <v>1188.544240056899</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>44.51976083228292</v>
+        <v>44.77665728377149</v>
       </c>
       <c r="G40">
-        <v>421.0202211094393</v>
+        <v>409.8066051255373</v>
       </c>
       <c r="H40">
-        <v>1847.113405420008</v>
+        <v>1965.572695061584</v>
       </c>
       <c r="I40">
-        <v>314.0173855105282</v>
+        <v>316.6887900530938</v>
       </c>
       <c r="J40">
-        <v>157.5852874125427</v>
+        <v>158.1519843724826</v>
       </c>
       <c r="K40">
-        <v>911.1069593281462</v>
+        <v>877.0892920817503</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>45.59786781780283</v>
+        <v>43.18826637862517</v>
       </c>
       <c r="G41">
-        <v>418.5088860717158</v>
+        <v>420.367336566126</v>
       </c>
       <c r="H41">
-        <v>1973.996351543553</v>
+        <v>1840.320967800596</v>
       </c>
       <c r="I41">
-        <v>401.965831725713</v>
+        <v>410.7935527330532</v>
       </c>
       <c r="J41">
-        <v>105.3859212077893</v>
+        <v>107.3850906539028</v>
       </c>
       <c r="K41">
-        <v>597.0313855873327</v>
+        <v>625.6706549014212</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.18245857525068</v>
+        <v>41.63604751689979</v>
       </c>
       <c r="G42">
-        <v>443.3108933117816</v>
+        <v>441.7151043520147</v>
       </c>
       <c r="H42">
-        <v>1814.726460282727</v>
+        <v>1889.167658036844</v>
       </c>
       <c r="I42">
-        <v>493.4501846967655</v>
+        <v>466.1290536094566</v>
       </c>
       <c r="J42">
-        <v>52.15673657157504</v>
+        <v>52.49636231391531</v>
       </c>
       <c r="K42">
-        <v>332.0285225000734</v>
+        <v>333.6070611937971</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.53716553337197</v>
+        <v>40.93489569311755</v>
       </c>
       <c r="G43">
-        <v>456.6048000947105</v>
+        <v>465.0082837242557</v>
       </c>
       <c r="H43">
-        <v>1857.083935002338</v>
+        <v>1827.850276153933</v>
       </c>
       <c r="I43">
-        <v>541.4526758828644</v>
+        <v>537.1395312589606</v>
       </c>
       <c r="J43">
-        <v>5.097611917790278</v>
+        <v>5.428293760850721</v>
       </c>
       <c r="K43">
-        <v>35.2062764133332</v>
+        <v>34.74891046794716</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.18356850251489</v>
+        <v>41.02747121021351</v>
       </c>
       <c r="G44">
-        <v>473.3999057177274</v>
+        <v>497.2997945667776</v>
       </c>
       <c r="H44">
-        <v>1940.369465232113</v>
+        <v>1880.417375432723</v>
       </c>
       <c r="I44">
-        <v>635.5628015110632</v>
+        <v>643.5003571999569</v>
       </c>
       <c r="J44">
-        <v>-45.43618451854842</v>
+        <v>-43.15521274737301</v>
       </c>
       <c r="K44">
-        <v>-271.5293895299482</v>
+        <v>-273.08263326273</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.14618266917626</v>
+        <v>40.71049108776091</v>
       </c>
       <c r="G45">
-        <v>515.4472159128308</v>
+        <v>480.9587325623617</v>
       </c>
       <c r="H45">
-        <v>1929.395881741656</v>
+        <v>1843.135763957649</v>
       </c>
       <c r="I45">
-        <v>739.6840468627734</v>
+        <v>743.9115664517566</v>
       </c>
       <c r="J45">
-        <v>-93.87993203142005</v>
+        <v>-89.30477761422286</v>
       </c>
       <c r="K45">
-        <v>-628.6728772010034</v>
+        <v>-620.4295625615799</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.40340831616781</v>
+        <v>39.05773651905582</v>
       </c>
       <c r="G46">
-        <v>504.2333648868737</v>
+        <v>517.9667325485449</v>
       </c>
       <c r="H46">
-        <v>1880.933520204346</v>
+        <v>1889.106238582312</v>
       </c>
       <c r="I46">
-        <v>794.2579775585625</v>
+        <v>768.1704948991618</v>
       </c>
       <c r="J46">
-        <v>-142.0343028108311</v>
+        <v>-140.2933773421448</v>
       </c>
       <c r="K46">
-        <v>-935.1447055309912</v>
+        <v>-990.2202523861075</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.02408669653284</v>
+        <v>39.82789415001212</v>
       </c>
       <c r="G47">
-        <v>527.8946632639897</v>
+        <v>517.9908348926321</v>
       </c>
       <c r="H47">
-        <v>2000.38893925883</v>
+        <v>1868.389630676768</v>
       </c>
       <c r="I47">
-        <v>868.3076236413563</v>
+        <v>907.7883333602473</v>
       </c>
       <c r="J47">
-        <v>-198.7467566666593</v>
+        <v>-191.4115469852233</v>
       </c>
       <c r="K47">
-        <v>-1323.104342556432</v>
+        <v>-1317.895127233351</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.03537413706434</v>
+        <v>37.70404048247977</v>
       </c>
       <c r="G48">
-        <v>524.9910723132938</v>
+        <v>540.7396440180976</v>
       </c>
       <c r="H48">
-        <v>1966.585562960739</v>
+        <v>1955.057997092234</v>
       </c>
       <c r="I48">
-        <v>968.9410494378054</v>
+        <v>1009.661071150749</v>
       </c>
       <c r="J48">
-        <v>-239.1086832224209</v>
+        <v>-242.081816506544</v>
       </c>
       <c r="K48">
-        <v>-1685.150826527711</v>
+        <v>-1758.803274462404</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.38886053696004</v>
+        <v>40.71436738965016</v>
       </c>
       <c r="G49">
-        <v>578.4643912393183</v>
+        <v>555.4158125980932</v>
       </c>
       <c r="H49">
-        <v>1887.242942890701</v>
+        <v>1863.426635017415</v>
       </c>
       <c r="I49">
-        <v>1089.85585610602</v>
+        <v>1070.623285459342</v>
       </c>
       <c r="J49">
-        <v>-299.710376501525</v>
+        <v>-278.9676021859449</v>
       </c>
       <c r="K49">
-        <v>-2071.04956341005</v>
+        <v>-2026.097371163704</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.02399213101744</v>
+        <v>37.05524844846162</v>
       </c>
       <c r="G50">
-        <v>566.7486493226583</v>
+        <v>583.9356658931524</v>
       </c>
       <c r="H50">
-        <v>1917.822427112664</v>
+        <v>1970.409965831911</v>
       </c>
       <c r="I50">
-        <v>1184.066421611249</v>
+        <v>1154.020057801784</v>
       </c>
       <c r="J50">
-        <v>-331.8392250587303</v>
+        <v>-347.8981941629334</v>
       </c>
       <c r="K50">
-        <v>-2461.321896519175</v>
+        <v>-2573.811135205274</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.23901816273939</v>
+        <v>37.2514251532131</v>
       </c>
       <c r="G51">
-        <v>594.4002035315974</v>
+        <v>567.1894223769935</v>
       </c>
       <c r="H51">
-        <v>1881.459619364233</v>
+        <v>2003.926220029423</v>
       </c>
       <c r="I51">
-        <v>1204.028118550558</v>
+        <v>1230.27284674712</v>
       </c>
       <c r="J51">
-        <v>-371.8530818485345</v>
+        <v>-374.338422335292</v>
       </c>
       <c r="K51">
-        <v>-2947.563167239255</v>
+        <v>-2990.818451159722</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.33108007517753</v>
+        <v>36.50516768915006</v>
       </c>
       <c r="G52">
-        <v>639.8687733670062</v>
+        <v>630.6433867526198</v>
       </c>
       <c r="H52">
-        <v>1994.628383129193</v>
+        <v>2013.625474828874</v>
       </c>
       <c r="I52">
-        <v>1302.297664324767</v>
+        <v>1307.751031486767</v>
       </c>
       <c r="J52">
-        <v>-429.1140649644979</v>
+        <v>-412.4015211426334</v>
       </c>
       <c r="K52">
-        <v>-3459.653187177492</v>
+        <v>-3370.773608678553</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.80601054812633</v>
+        <v>35.6355779869332</v>
       </c>
       <c r="G53">
-        <v>616.0549242710654</v>
+        <v>626.0032629546577</v>
       </c>
       <c r="H53">
-        <v>2029.913986882499</v>
+        <v>2023.253747235605</v>
       </c>
       <c r="I53">
-        <v>1451.049373779182</v>
+        <v>1387.433272998654</v>
       </c>
       <c r="J53">
-        <v>-489.1053962354205</v>
+        <v>-473.9456197400934</v>
       </c>
       <c r="K53">
-        <v>-3800.208477437006</v>
+        <v>-3854.320401947208</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.41489385638117</v>
+        <v>35.47796959806723</v>
       </c>
       <c r="G54">
-        <v>647.1343290316505</v>
+        <v>639.01738903855</v>
       </c>
       <c r="H54">
-        <v>1947.67950243995</v>
+        <v>1901.599606771823</v>
       </c>
       <c r="I54">
-        <v>1622.162426374432</v>
+        <v>1568.733036769989</v>
       </c>
       <c r="J54">
-        <v>-524.2651214272686</v>
+        <v>-534.6318024095805</v>
       </c>
       <c r="K54">
-        <v>-4487.338855969282</v>
+        <v>-4258.363052469316</v>
       </c>
     </row>
   </sheetData>
